--- a/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
+++ b/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
@@ -446,26 +446,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="11" max="12" width="14.21875" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="37.5546875" customWidth="1"/>
+    <col min="1" max="16" width="10.77734375" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1470,12 +1461,15 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2471,5 +2465,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
+++ b/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="17088" windowHeight="7512" activeTab="1"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="17088" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="10 Гц (1-8) и 1 Гц (9-16)" sheetId="1" r:id="rId1"/>
@@ -446,13 +446,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="10.77734375" customWidth="1"/>
+    <col min="1" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="16" width="20.77734375" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1460,13 +1461,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16" width="10.77734375" customWidth="1"/>
+    <col min="1" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="16" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">

--- a/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
+++ b/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="17088" windowHeight="7512"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="17088" windowHeight="7512" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="10 Гц (1-8) и 1 Гц (9-16)" sheetId="1" r:id="rId1"/>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P17"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,14 +1461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="16" width="20.77734375" customWidth="1"/>
+    <col min="1" max="10" width="10.77734375" customWidth="1"/>
+    <col min="11" max="12" width="20.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.77734375" customWidth="1"/>
+    <col min="14" max="15" width="20.77734375" customWidth="1"/>
+    <col min="16" max="16" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">

--- a/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
+++ b/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>частота</t>
   </si>
@@ -64,13 +64,28 @@
   <si>
     <t>максимум мощности за текущие сутки (Р26) и месяц (Р32) и предыдущие сутки (Р23) и месяц (Р29) по группам; мощность получасовая текущая (Р20) и предыдущая (Р21) по группам</t>
   </si>
+  <si>
+    <t>количество получасов за предыдущие сутки/месяц</t>
+  </si>
+  <si>
+    <t>количество импульсов за предыдущие сутки/месяц</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,7 +132,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -141,6 +156,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1461,66 +1503,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="10.77734375" customWidth="1"/>
-    <col min="11" max="12" width="20.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="15" width="20.77734375" customWidth="1"/>
-    <col min="16" max="16" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1537,7 +1588,7 @@
       <c r="D2" s="6">
         <v>500</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="16">
         <f t="shared" ref="E2:E17" si="0">$C2/$D2</f>
         <v>2E-3</v>
       </c>
@@ -1551,34 +1602,34 @@
       <c r="H2" s="6">
         <v>28</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="16">
         <f>$F2*$G2</f>
         <v>34200</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="16">
         <f>$F2*$H2</f>
         <v>50400</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="17">
         <f>$E2*$I2</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="17">
         <f>$E2*$J2</f>
         <v>100.8</v>
       </c>
       <c r="M2" s="8">
         <v>1</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="13">
         <f>$K2</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="13">
         <f>$L2</f>
         <v>100.8</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="13">
         <f>$E2*$F2*2</f>
         <v>7.2</v>
       </c>
@@ -1596,7 +1647,7 @@
       <c r="D3" s="6">
         <v>1000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="16">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
@@ -1610,34 +1661,34 @@
       <c r="H3" s="6">
         <v>28</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="16">
         <f t="shared" ref="I3:I17" si="2">$F3*$G3</f>
         <v>34200</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="16">
         <f t="shared" ref="J3:J17" si="3">$F3*$H3</f>
         <v>50400</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:K17" si="4">$E3*$I3</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="17">
         <f t="shared" ref="L3:L17" si="5">$E3*$J3</f>
         <v>151.20000000000002</v>
       </c>
       <c r="M3" s="8">
         <v>2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="13">
         <f t="shared" ref="N3:N5" si="6">$K3</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="13">
         <f t="shared" ref="O3:O5" si="7">$L3</f>
         <v>151.20000000000002</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="13">
         <f t="shared" ref="P3:P4" si="8">$E3*$F3*2</f>
         <v>10.8</v>
       </c>
@@ -1655,7 +1706,7 @@
       <c r="D4" s="6">
         <v>2000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="16">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
@@ -1669,34 +1720,34 @@
       <c r="H4" s="6">
         <v>28</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="17">
         <f t="shared" si="4"/>
         <v>85.5</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="17">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
       <c r="M4" s="8">
         <v>3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="13">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="13">
         <f t="shared" si="7"/>
         <v>126</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="13">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
@@ -1714,7 +1765,7 @@
       <c r="D5" s="6">
         <v>200</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1728,34 +1779,34 @@
       <c r="H5" s="6">
         <v>28</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="17">
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="17">
         <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="M5" s="8">
         <v>4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="13">
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="13">
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="13">
         <f>$E5*$F5*2</f>
         <v>18</v>
       </c>
@@ -1773,7 +1824,7 @@
       <c r="D6" s="6">
         <v>500</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -1787,34 +1838,34 @@
       <c r="H6" s="6">
         <v>28</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K6" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L6" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M6" s="8">
         <v>5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="13">
         <f>$K2+$K3+$K4+$K5+$K6+$K7+$K8+$K9+$K10+$K11+$K12+$K13+$K14+$K15+$K16+$K17</f>
         <v>1248.3000000000002</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="13">
         <f>$L2+$L3+$L4+$L5+$L6+$L7+$L8+$L9+$L10+$L11+$L12+$L13+$L14+$L15+$L16+$L17</f>
         <v>1839.5999999999995</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="13">
         <f>($E2*$F2+$E3*$F3+$E4*$F4+$E5*$F5+$E6*$F6+$E7*$F7+$E8*$F8+$E9*$F9+$E10*$F10+$E11*$F11+$E12*$F12+$E13*$F13+$E14*$F14+$E15*$F15+$E16*$F16+$E17*$F17)*2</f>
         <v>131.40000000000003</v>
       </c>
@@ -1832,7 +1883,7 @@
       <c r="D7" s="6">
         <v>500</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -1846,34 +1897,34 @@
       <c r="H7" s="6">
         <v>28</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L7" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M7" s="8">
         <v>6</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="13">
         <f>-$K2-$K3+$K4+$K5</f>
         <v>85.5</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="13">
         <f>-$L2-$L3+$L4+$L5</f>
         <v>126</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="13">
         <f>(-$E2*$F2-$E3*$F3+$E4*$F4+$E5*$F5)*2</f>
         <v>9</v>
       </c>
@@ -1891,7 +1942,7 @@
       <c r="D8" s="6">
         <v>500</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -1905,34 +1956,34 @@
       <c r="H8" s="6">
         <v>28</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="K8" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M8" s="8">
         <v>7</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="13">
         <f>$K8</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="13">
         <f>$L8</f>
         <v>100.8</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="13">
         <f>$E8*$F8*2</f>
         <v>7.2</v>
       </c>
@@ -1950,7 +2001,7 @@
       <c r="D9" s="6">
         <v>500</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -1964,34 +2015,34 @@
       <c r="H9" s="6">
         <v>28</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L9" s="7">
+      <c r="K9" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M9" s="8">
         <v>8</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="13">
         <f t="shared" ref="N9:N17" si="9">$K9</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="13">
         <f t="shared" ref="O9:O17" si="10">$L9</f>
         <v>100.8</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="13">
         <f t="shared" ref="P9:P17" si="11">$E9*$F9*2</f>
         <v>7.2</v>
       </c>
@@ -2009,7 +2060,7 @@
       <c r="D10" s="6">
         <v>500</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2023,34 +2074,34 @@
       <c r="H10" s="6">
         <v>28</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L10" s="7">
+      <c r="K10" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M10" s="8">
         <v>9</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2068,7 +2119,7 @@
       <c r="D11" s="6">
         <v>500</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2082,34 +2133,34 @@
       <c r="H11" s="6">
         <v>28</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L11" s="7">
+      <c r="K11" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L11" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M11" s="8">
         <v>10</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2127,7 +2178,7 @@
       <c r="D12" s="6">
         <v>500</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2141,34 +2192,34 @@
       <c r="H12" s="6">
         <v>28</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L12" s="7">
+      <c r="K12" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L12" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M12" s="8">
         <v>11</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2186,7 +2237,7 @@
       <c r="D13" s="6">
         <v>500</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2200,34 +2251,34 @@
       <c r="H13" s="6">
         <v>28</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L13" s="7">
+      <c r="K13" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L13" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M13" s="8">
         <v>12</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2245,7 +2296,7 @@
       <c r="D14" s="6">
         <v>500</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2259,34 +2310,34 @@
       <c r="H14" s="6">
         <v>28</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L14" s="7">
+      <c r="K14" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L14" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M14" s="8">
         <v>13</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2304,7 +2355,7 @@
       <c r="D15" s="6">
         <v>500</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2318,34 +2369,34 @@
       <c r="H15" s="6">
         <v>28</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L15" s="7">
+      <c r="K15" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M15" s="8">
         <v>14</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2363,7 +2414,7 @@
       <c r="D16" s="6">
         <v>500</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2377,34 +2428,34 @@
       <c r="H16" s="6">
         <v>28</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L16" s="7">
+      <c r="K16" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L16" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M16" s="8">
         <v>15</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -2422,7 +2473,7 @@
       <c r="D17" s="6">
         <v>500</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
@@ -2436,34 +2487,34 @@
       <c r="H17" s="6">
         <v>28</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="16">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="16">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L17" s="7">
+      <c r="K17" s="17">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L17" s="17">
         <f t="shared" si="5"/>
         <v>100.8</v>
       </c>
       <c r="M17" s="8">
         <v>16</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="13">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="13">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="13">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>

--- a/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
+++ b/ek-tm4c1294xl/project1/doc/reports/поверка импульсов.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>частота</t>
   </si>
@@ -23,13 +23,7 @@
     <t>количество импульсов за получас</t>
   </si>
   <si>
-    <t>количество получасов за прошлые сутки/месяц</t>
-  </si>
-  <si>
     <t>количество получасов за текущие сутки/месяц</t>
-  </si>
-  <si>
-    <t>количество импульсов за прошлые сутки/месяц</t>
   </si>
   <si>
     <t>количество импульсов за текущие сутки/месяц</t>
@@ -132,15 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -150,9 +141,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -184,6 +172,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,1007 +485,1015 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="13" width="10.77734375" customWidth="1"/>
-    <col min="14" max="16" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" customWidth="1"/>
+    <col min="3" max="6" width="10.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="12" width="13.77734375" customWidth="1"/>
+    <col min="13" max="13" width="6.88671875" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="P1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>10</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>500</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="14">
         <f t="shared" ref="E2:E17" si="0">$C2/$D2</f>
         <v>2E-3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>$B2*1800</f>
         <v>18000</v>
       </c>
-      <c r="G2" s="6">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6">
-        <v>28</v>
-      </c>
-      <c r="I2" s="6">
+      <c r="G2" s="5">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5">
+        <v>28</v>
+      </c>
+      <c r="I2" s="14">
         <f>$F2*$G2</f>
         <v>342000</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="14">
         <f>$F2*$H2</f>
         <v>504000</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="15">
         <f>$E2*$I2</f>
         <v>684</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="15">
         <f>$E2*$J2</f>
         <v>1008</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="8">
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
         <f>$K2</f>
         <v>684</v>
       </c>
-      <c r="O2" s="8">
+      <c r="O2" s="11">
         <f>$L2</f>
         <v>1008</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="11">
         <f>$E2*$F2*2</f>
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1000</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="14">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F17" si="1">$B3*1800</f>
         <v>18000</v>
       </c>
-      <c r="G3" s="6">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6">
-        <v>28</v>
-      </c>
-      <c r="I3" s="6">
+      <c r="G3" s="5">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <v>28</v>
+      </c>
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I17" si="2">$F3*$G3</f>
         <v>342000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:J17" si="3">$F3*$H3</f>
         <v>504000</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="15">
         <f t="shared" ref="K3:K17" si="4">$E3*$I3</f>
         <v>1026</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L17" si="5">$E3*$J3</f>
         <v>1512</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N5" si="6">$K3</f>
         <v>1026</v>
       </c>
-      <c r="O3" s="8">
+      <c r="O3" s="11">
         <f t="shared" ref="O3:O5" si="7">$L3</f>
         <v>1512</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="11">
         <f t="shared" ref="P3:P4" si="8">$E3*$F3*2</f>
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2000</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G4" s="6">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6">
-        <v>28</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="G4" s="5">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5">
+        <v>28</v>
+      </c>
+      <c r="I4" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="15">
         <f t="shared" si="4"/>
         <v>855</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="15">
         <f t="shared" si="5"/>
         <v>1260</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>3</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="11">
         <f t="shared" si="6"/>
         <v>855</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="11">
         <f t="shared" si="7"/>
         <v>1260</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="11">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G5" s="6">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="G5" s="5">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>28</v>
+      </c>
+      <c r="I5" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="15">
         <f t="shared" si="4"/>
         <v>1710</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="15">
         <f t="shared" si="5"/>
         <v>2520</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="11">
         <f t="shared" si="6"/>
         <v>1710</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="11">
         <f t="shared" si="7"/>
         <v>2520</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="11">
         <f>$E5*$F5*2</f>
         <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>500</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G6" s="6">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6">
-        <v>28</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="G6" s="5">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>28</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="15">
         <f t="shared" si="4"/>
         <v>684</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="15">
         <f t="shared" si="5"/>
         <v>1008</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="6">
         <v>5</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="11">
         <f>$K2+$K3+$K4+$K5+$K6+$K7+$K8+$K9+$K10+$K11+$K12+$K13+$K14+$K15+$K16+$K17</f>
         <v>7558.1999999999971</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="11">
         <f>$L2+$L3+$L4+$L5+$L6+$L7+$L8+$L9+$L10+$L11+$L12+$L13+$L14+$L15+$L16+$L17</f>
         <v>11138.399999999994</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="11">
         <f>($E2*$F2+$E3*$F3+$E4*$F4+$E5*$F5+$E6*$F6+$E7*$F7+$E8*$F8+$E9*$F9+$E10*$F10+$E11*$F11+$E12*$F12+$E13*$F13+$E14*$F14+$E15*$F15+$E16*$F16+$E17*$F17)*2</f>
         <v>795.60000000000036</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>500</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G7" s="6">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="G7" s="5">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="15">
         <f t="shared" si="4"/>
         <v>684</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="15">
         <f t="shared" si="5"/>
         <v>1008</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="6">
         <v>6</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="11">
         <f>-$K2-$K3+$K4+$K5</f>
         <v>855</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="11">
         <f>-$L2-$L3+$L4+$L5</f>
         <v>1260</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="11">
         <f>(-$E2*$F2-$E3*$F3+$E4*$F4+$E5*$F5)*2</f>
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>500</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G8" s="6">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6">
-        <v>28</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="G8" s="5">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="15">
         <f t="shared" si="4"/>
         <v>684</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="15">
         <f t="shared" si="5"/>
         <v>1008</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>7</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="11">
         <f>$K8</f>
         <v>684</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="11">
         <f>$L8</f>
         <v>1008</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="11">
         <f>$E8*$F8*2</f>
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>10</v>
       </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>500</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-      <c r="G9" s="6">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6">
-        <v>28</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="G9" s="5">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14">
         <f t="shared" si="2"/>
         <v>342000</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="14">
         <f t="shared" si="3"/>
         <v>504000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="15">
         <f t="shared" si="4"/>
         <v>684</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="15">
         <f t="shared" si="5"/>
         <v>1008</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>8</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="11">
         <f t="shared" ref="N9:N17" si="9">$K9</f>
         <v>684</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="11">
         <f t="shared" ref="O9:O17" si="10">$L9</f>
         <v>1008</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="11">
         <f t="shared" ref="P9:P17" si="11">$E9*$F9*2</f>
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>500</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G10" s="6">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6">
-        <v>28</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="G10" s="5">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>28</v>
+      </c>
+      <c r="I10" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="K10" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M10" s="6">
         <v>9</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>500</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G11" s="6">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6">
-        <v>28</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="G11" s="5">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5">
+        <v>28</v>
+      </c>
+      <c r="I11" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="K11" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M11" s="6">
         <v>10</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>500</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G12" s="6">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6">
-        <v>28</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="G12" s="5">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5">
+        <v>28</v>
+      </c>
+      <c r="I12" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="K12" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M12" s="6">
         <v>11</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>500</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G13" s="6">
-        <v>19</v>
-      </c>
-      <c r="H13" s="6">
-        <v>28</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="G13" s="5">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K13" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="K13" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M13" s="6">
         <v>12</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
         <v>500</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G14" s="6">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6">
-        <v>28</v>
-      </c>
-      <c r="I14" s="6">
+      <c r="G14" s="5">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5">
+        <v>28</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K14" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="K14" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M14" s="6">
         <v>13</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>500</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G15" s="6">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6">
-        <v>28</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="G15" s="5">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5">
+        <v>28</v>
+      </c>
+      <c r="I15" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K15" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M15" s="8">
+      <c r="K15" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M15" s="6">
         <v>14</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
         <v>500</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G16" s="6">
-        <v>19</v>
-      </c>
-      <c r="H16" s="6">
-        <v>28</v>
-      </c>
-      <c r="I16" s="6">
+      <c r="G16" s="5">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5">
+        <v>28</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="K16" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M16" s="6">
         <v>15</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>500</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G17" s="6">
-        <v>19</v>
-      </c>
-      <c r="H17" s="6">
-        <v>28</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="G17" s="5">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5">
+        <v>28</v>
+      </c>
+      <c r="I17" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K17" s="7">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="K17" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M17" s="6">
         <v>16</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
@@ -1503,22 +1508,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
+    <col min="3" max="6" width="10.77734375" customWidth="1"/>
     <col min="7" max="8" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" customWidth="1"/>
+    <col min="11" max="12" width="13.77734375" customWidth="1"/>
     <col min="13" max="13" width="6.88671875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" customWidth="1"/>
     <col min="15" max="15" width="13.33203125" customWidth="1"/>
@@ -1526,995 +1527,995 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="15" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
         <v>500</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <f t="shared" ref="E2:E17" si="0">$C2/$D2</f>
         <v>2E-3</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>$B2*1800</f>
         <v>1800</v>
       </c>
-      <c r="G2" s="6">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6">
-        <v>28</v>
-      </c>
-      <c r="I2" s="16">
+      <c r="G2" s="5">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5">
+        <v>28</v>
+      </c>
+      <c r="I2" s="14">
         <f>$F2*$G2</f>
         <v>34200</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="14">
         <f>$F2*$H2</f>
         <v>50400</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="15">
         <f>$E2*$I2</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="L2" s="17">
+      <c r="L2" s="15">
         <f>$E2*$J2</f>
         <v>100.8</v>
       </c>
-      <c r="M2" s="8">
-        <v>1</v>
-      </c>
-      <c r="N2" s="13">
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="11">
         <f>$K2</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="11">
         <f>$L2</f>
         <v>100.8</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <f>$E2*$F2*2</f>
         <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>1000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <f t="shared" si="0"/>
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F17" si="1">$B3*1800</f>
         <v>1800</v>
       </c>
-      <c r="G3" s="6">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6">
-        <v>28</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="G3" s="5">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
+        <v>28</v>
+      </c>
+      <c r="I3" s="14">
         <f t="shared" ref="I3:I17" si="2">$F3*$G3</f>
         <v>34200</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:J17" si="3">$F3*$H3</f>
         <v>50400</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <f t="shared" ref="K3:K17" si="4">$E3*$I3</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <f t="shared" ref="L3:L17" si="5">$E3*$J3</f>
         <v>151.20000000000002</v>
       </c>
-      <c r="M3" s="8">
+      <c r="M3" s="6">
         <v>2</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="11">
         <f t="shared" ref="N3:N5" si="6">$K3</f>
         <v>102.60000000000001</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="11">
         <f t="shared" ref="O3:O5" si="7">$L3</f>
         <v>151.20000000000002</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="11">
         <f t="shared" ref="P3:P4" si="8">$E3*$F3*2</f>
         <v>10.8</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>2000</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G4" s="6">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6">
-        <v>28</v>
-      </c>
-      <c r="I4" s="16">
+      <c r="G4" s="5">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5">
+        <v>28</v>
+      </c>
+      <c r="I4" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <f t="shared" si="4"/>
         <v>85.5</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <f t="shared" si="5"/>
         <v>126</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="6">
         <v>3</v>
       </c>
-      <c r="N4" s="13">
+      <c r="N4" s="11">
         <f t="shared" si="6"/>
         <v>85.5</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="11">
         <f t="shared" si="7"/>
         <v>126</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G5" s="6">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6">
-        <v>28</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="G5" s="5">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>28</v>
+      </c>
+      <c r="I5" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="15">
         <f t="shared" si="5"/>
         <v>252</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <v>4</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="11">
         <f t="shared" si="6"/>
         <v>171</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="11">
         <f t="shared" si="7"/>
         <v>252</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <f>$E5*$F5*2</f>
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
         <v>500</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G6" s="6">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6">
-        <v>28</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="G6" s="5">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5">
+        <v>28</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K6" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L6" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M6" s="8">
+      <c r="K6" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L6" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M6" s="6">
         <v>5</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="11">
         <f>$K2+$K3+$K4+$K5+$K6+$K7+$K8+$K9+$K10+$K11+$K12+$K13+$K14+$K15+$K16+$K17</f>
         <v>1248.3000000000002</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="11">
         <f>$L2+$L3+$L4+$L5+$L6+$L7+$L8+$L9+$L10+$L11+$L12+$L13+$L14+$L15+$L16+$L17</f>
         <v>1839.5999999999995</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f>($E2*$F2+$E3*$F3+$E4*$F4+$E5*$F5+$E6*$F6+$E7*$F7+$E8*$F8+$E9*$F9+$E10*$F10+$E11*$F11+$E12*$F12+$E13*$F13+$E14*$F14+$E15*$F15+$E16*$F16+$E17*$F17)*2</f>
         <v>131.40000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
         <v>500</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G7" s="6">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6">
-        <v>28</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="G7" s="5">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28</v>
+      </c>
+      <c r="I7" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K7" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L7" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M7" s="8">
+      <c r="K7" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L7" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M7" s="6">
         <v>6</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="11">
         <f>-$K2-$K3+$K4+$K5</f>
         <v>85.5</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="11">
         <f>-$L2-$L3+$L4+$L5</f>
         <v>126</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <f>(-$E2*$F2-$E3*$F3+$E4*$F4+$E5*$F5)*2</f>
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>500</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G8" s="6">
-        <v>19</v>
-      </c>
-      <c r="H8" s="6">
-        <v>28</v>
-      </c>
-      <c r="I8" s="16">
+      <c r="G8" s="5">
+        <v>19</v>
+      </c>
+      <c r="H8" s="5">
+        <v>28</v>
+      </c>
+      <c r="I8" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K8" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L8" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M8" s="8">
+      <c r="K8" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M8" s="6">
         <v>7</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="11">
         <f>$K8</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="11">
         <f>$L8</f>
         <v>100.8</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <f>$E8*$F8*2</f>
         <v>7.2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>500</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G9" s="6">
-        <v>19</v>
-      </c>
-      <c r="H9" s="6">
-        <v>28</v>
-      </c>
-      <c r="I9" s="16">
+      <c r="G9" s="5">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5">
+        <v>28</v>
+      </c>
+      <c r="I9" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K9" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L9" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M9" s="8">
+      <c r="K9" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M9" s="6">
         <v>8</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="11">
         <f t="shared" ref="N9:N17" si="9">$K9</f>
         <v>68.400000000000006</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="11">
         <f t="shared" ref="O9:O17" si="10">$L9</f>
         <v>100.8</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <f t="shared" ref="P9:P17" si="11">$E9*$F9*2</f>
         <v>7.2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>500</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G10" s="6">
-        <v>19</v>
-      </c>
-      <c r="H10" s="6">
-        <v>28</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="G10" s="5">
+        <v>19</v>
+      </c>
+      <c r="H10" s="5">
+        <v>28</v>
+      </c>
+      <c r="I10" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K10" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M10" s="8">
+      <c r="K10" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M10" s="6">
         <v>9</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
         <v>500</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G11" s="6">
-        <v>19</v>
-      </c>
-      <c r="H11" s="6">
-        <v>28</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="G11" s="5">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5">
+        <v>28</v>
+      </c>
+      <c r="I11" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K11" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L11" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M11" s="8">
+      <c r="K11" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M11" s="6">
         <v>10</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
         <v>500</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G12" s="6">
-        <v>19</v>
-      </c>
-      <c r="H12" s="6">
-        <v>28</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="G12" s="5">
+        <v>19</v>
+      </c>
+      <c r="H12" s="5">
+        <v>28</v>
+      </c>
+      <c r="I12" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K12" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L12" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M12" s="8">
+      <c r="K12" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M12" s="6">
         <v>11</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5">
         <v>500</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G13" s="6">
-        <v>19</v>
-      </c>
-      <c r="H13" s="6">
-        <v>28</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="G13" s="5">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5">
+        <v>28</v>
+      </c>
+      <c r="I13" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K13" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L13" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M13" s="8">
+      <c r="K13" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M13" s="6">
         <v>12</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
         <v>500</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G14" s="6">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6">
-        <v>28</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="G14" s="5">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5">
+        <v>28</v>
+      </c>
+      <c r="I14" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K14" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L14" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M14" s="8">
+      <c r="K14" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L14" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M14" s="6">
         <v>13</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5">
         <v>500</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G15" s="6">
-        <v>19</v>
-      </c>
-      <c r="H15" s="6">
-        <v>28</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="G15" s="5">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5">
+        <v>28</v>
+      </c>
+      <c r="I15" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K15" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L15" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M15" s="8">
+      <c r="K15" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L15" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M15" s="6">
         <v>14</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
         <v>500</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G16" s="6">
-        <v>19</v>
-      </c>
-      <c r="H16" s="6">
-        <v>28</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="G16" s="5">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5">
+        <v>28</v>
+      </c>
+      <c r="I16" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K16" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L16" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M16" s="8">
+      <c r="K16" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L16" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M16" s="6">
         <v>15</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
         <v>500</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="G17" s="6">
-        <v>19</v>
-      </c>
-      <c r="H17" s="6">
-        <v>28</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="G17" s="5">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5">
+        <v>28</v>
+      </c>
+      <c r="I17" s="14">
         <f t="shared" si="2"/>
         <v>34200</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="14">
         <f t="shared" si="3"/>
         <v>50400</v>
       </c>
-      <c r="K17" s="17">
-        <f t="shared" si="4"/>
-        <v>68.400000000000006</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="5"/>
-        <v>100.8</v>
-      </c>
-      <c r="M17" s="8">
+      <c r="K17" s="15">
+        <f t="shared" si="4"/>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="L17" s="15">
+        <f t="shared" si="5"/>
+        <v>100.8</v>
+      </c>
+      <c r="M17" s="6">
         <v>16</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="11">
         <f t="shared" si="9"/>
         <v>68.400000000000006</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="11">
         <f t="shared" si="10"/>
         <v>100.8</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <f t="shared" si="11"/>
         <v>7.2</v>
       </c>
